--- a/00-UAT/PROD-Release/17-PROD-Nov-28-2022/TC template.xlsx
+++ b/00-UAT/PROD-Release/17-PROD-Nov-28-2022/TC template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bfl.local\dfsroot\US_Users\duque\My Documents\00-MyDocuments\00-UAT\PROD-Release\10-PROD-Sep-16-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bfl.local\dfsroot\US_Users\duque\My Documents\00-MyDocuments\00-UAT\PROD-Release\17-PROD-Nov-28-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DA07C9-38F2-41AD-A79F-4722D5EBC247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFDD33-6844-4C8F-97DD-AC9ECCB56603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2265" windowWidth="20820" windowHeight="11070" xr2:uid="{10B8A441-66C5-4A16-9151-23921D491B33}"/>
+    <workbookView xWindow="1950" yWindow="1185" windowWidth="25620" windowHeight="13995" xr2:uid="{10B8A441-66C5-4A16-9151-23921D491B33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,15 +147,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -482,7 +479,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +524,9 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -541,9 +538,9 @@
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -555,9 +552,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>15</v>
